--- a/data/trans_camb/iP18_E_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,98</t>
+          <t>-2,35; 2,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 4,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 4,01</t>
+          <t>-1,55; 3,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 2,47</t>
+          <t>-5,97; 2,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 2,49</t>
+          <t>-34,2; 2,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,43</t>
+          <t>-1,2; 2,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,27</t>
+          <t>-3,68; 1,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 1,71</t>
+          <t>-11,82; 1,75</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,09</t>
+          <t>-2,39; 3,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 1,94</t>
+          <t>-4,84; 1,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,98</t>
+          <t>0,0; 4,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 4,17</t>
+          <t>-1,56; 3,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,54</t>
+          <t>-6,08; 2,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 2,55</t>
+          <t>-35,25; 2,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,51</t>
+          <t>-1,2; 2,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,29</t>
+          <t>-3,74; 1,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 1,74</t>
+          <t>-11,98; 1,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,02</t>
+          <t>-1,46; 3,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,62</t>
+          <t>-0,73; 3,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,32</t>
+          <t>-2,05; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,64</t>
+          <t>-1,96; 2,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,16</t>
+          <t>-1,51; 2,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -2,63</t>
+          <t>-20,73; -2,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,29</t>
+          <t>-0,94; 2,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,67</t>
+          <t>-0,63; 2,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 0,57</t>
+          <t>-8,83; 0,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,2</t>
+          <t>-1,51; 3,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,85</t>
+          <t>-0,76; 3,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,58</t>
+          <t>-2,1; 5,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,81</t>
+          <t>-2,03; 3,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,36</t>
+          <t>-1,57; 2,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,33; -2,77</t>
+          <t>-21,43; -2,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,4</t>
+          <t>-0,97; 2,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,84</t>
+          <t>-0,66; 2,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 0,6</t>
+          <t>-9,31; 0,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 12,33</t>
+          <t>-0,83; 11,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 9,7</t>
+          <t>-3,17; 10,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 10,35</t>
+          <t>-15,76; 10,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 8,46</t>
+          <t>-4,45; 7,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 6,76</t>
+          <t>-5,57; 6,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 2,38</t>
+          <t>-22,64; 2,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,87</t>
+          <t>-0,72; 8,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,43</t>
+          <t>-2,88; 5,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 3,89</t>
+          <t>-14,82; 3,9</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 16,17</t>
+          <t>-0,94; 14,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 12,08</t>
+          <t>-3,7; 12,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 12,65</t>
+          <t>-18,21; 12,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 10,05</t>
+          <t>-5,06; 9,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 8,16</t>
+          <t>-6,24; 8,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 2,7</t>
+          <t>-25,79; 3,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 9,52</t>
+          <t>-0,8; 10,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 7,72</t>
+          <t>-3,28; 7,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 4,7</t>
+          <t>-17,3; 4,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,73</t>
+          <t>-0,59; 3,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,29</t>
+          <t>-1,09; 3,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,33</t>
+          <t>-3,57; 4,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,31</t>
+          <t>-1,09; 3,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,72</t>
+          <t>-1,88; 2,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,04; -3,24</t>
+          <t>-18,44; -3,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,87</t>
+          <t>-0,07; 2,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,33</t>
+          <t>-0,86; 2,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -0,56</t>
+          <t>-8,33; -0,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,07</t>
+          <t>-0,63; 4,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,57</t>
+          <t>-1,16; 3,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,65</t>
+          <t>-3,83; 4,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,62</t>
+          <t>-1,14; 3,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,95</t>
+          <t>-1,97; 3,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -3,52</t>
+          <t>-20,11; -3,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,12</t>
+          <t>-0,06; 3,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,53</t>
+          <t>-0,91; 2,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -0,6</t>
+          <t>-8,91; -0,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP18_E_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 2,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,26; 2,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 2,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 1,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 2,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 1,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,73; 1,68</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,21%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,11; 2,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,37; 2,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 3,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 1,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 2,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 1,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,89; 1,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-10,39</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0,95</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-4,39</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-3,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,99</t>
+          <t>-1,87; 3,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 1,9</t>
+          <t>-1,77; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,75</t>
+          <t>-25,05; -2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,51</t>
+          <t>-1,49; 3,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,32</t>
+          <t>-0,8; 3,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 2,23</t>
+          <t>-2,15; 4,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,24</t>
+          <t>-0,96; 2,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,33</t>
+          <t>-0,62; 2,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 1,75</t>
+          <t>-9,71; 0,32</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>-10,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -974,27 +974,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>-3,6%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,11</t>
+          <t>-1,94; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,94</t>
+          <t>-1,82; 3,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>-26,25; -2,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,62</t>
+          <t>-1,56; 3,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,39</t>
+          <t>-0,82; 3,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 2,28</t>
+          <t>-2,23; 4,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,3</t>
+          <t>-1,01; 2,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,34</t>
+          <t>-0,65; 2,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 1,78</t>
+          <t>-10,17; 0,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-8,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-4,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,11</t>
+          <t>-3,27; 8,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,68</t>
+          <t>-5,61; 6,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 4,79</t>
+          <t>-24,47; 2,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,93</t>
+          <t>-0,73; 12,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,75</t>
+          <t>-3,01; 9,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -2,07</t>
+          <t>-16,94; 10,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,14</t>
+          <t>-0,8; 8,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,66</t>
+          <t>-2,92; 5,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 0,15</t>
+          <t>-14,56; 3,86</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-9,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-3,17%</t>
+          <t>-5,0%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,31</t>
+          <t>-3,68; 9,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,92</t>
+          <t>-6,32; 7,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 5,09</t>
+          <t>-28,16; 2,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,12</t>
+          <t>-1,04; 15,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,93</t>
+          <t>-3,43; 11,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,43; -2,21</t>
+          <t>-20,19; 12,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,28</t>
+          <t>-0,91; 9,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,82</t>
+          <t>-3,35; 6,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 0,17</t>
+          <t>-17,13; 4,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-3,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 11,74</t>
+          <t>-0,87; 3,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 10,09</t>
+          <t>-1,84; 2,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 10,02</t>
+          <t>-18,9; -3,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 7,93</t>
+          <t>-0,52; 3,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,81</t>
+          <t>-0,99; 3,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 2,51</t>
+          <t>-3,89; 4,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 8,39</t>
+          <t>-0,09; 2,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,97</t>
+          <t>-0,87; 2,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 3,9</t>
+          <t>-8,74; -0,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 14,86</t>
+          <t>-0,9; 3,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 12,76</t>
+          <t>-1,93; 2,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 12,38</t>
+          <t>-20,09; -4,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 9,36</t>
+          <t>-0,54; 4,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 8,2</t>
+          <t>-1,03; 3,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 3,05</t>
+          <t>-4,16; 4,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 10,21</t>
+          <t>-0,07; 3,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 7,18</t>
+          <t>-0,93; 2,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 4,73</t>
+          <t>-9,38; -0,29</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-8,9</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 3,72</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 3,24</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 4,04</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 3,28</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 2,77</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-18,44; -3,18</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 2,92</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 2,14</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; -0,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,86%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-9,51%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-3,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 4,07</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 3,52</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 4,38</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 3,55</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 3,01</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-20,11; -3,48</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 3,18</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 2,32</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; -0,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
